--- a/testresults/Auswertung Testdurchläufe.xlsx
+++ b/testresults/Auswertung Testdurchläufe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gs\OneDrive - Selectline Software AG\Dokumente\Studium\SelectLAIne\SelectLAIne OpenAI\testresults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giani\OneDrive\Documents\ZHAW\6. Semester\AI Applications\SelectLAIne\SelectLAIne\testresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB28B04F-139A-42B7-83CD-096425BE8E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEABDB28-2F75-42C4-A0D0-97786893BEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1F56184C-1605-4FD4-8591-6AFBAF9F6C3C}"/>
+    <workbookView xWindow="-9230" yWindow="-21600" windowWidth="19370" windowHeight="20970" xr2:uid="{1F56184C-1605-4FD4-8591-6AFBAF9F6C3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -548,18 +548,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7127587F-8BD1-4F9B-9840-9F125FC43EF6}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="75.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="75.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +581,14 @@
       <c r="H1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -601,8 +607,14 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -621,8 +633,14 @@
       <c r="H3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -641,8 +659,14 @@
       <c r="H4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -661,8 +685,14 @@
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -681,8 +711,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -701,8 +737,14 @@
       <c r="H7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -721,8 +763,14 @@
       <c r="H8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -741,8 +789,14 @@
       <c r="H9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -761,8 +815,14 @@
       <c r="H10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -781,8 +841,14 @@
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -801,8 +867,14 @@
       <c r="H12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -821,8 +893,14 @@
       <c r="H13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -841,8 +919,14 @@
       <c r="H14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -861,8 +945,14 @@
       <c r="H15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -881,8 +971,14 @@
       <c r="H16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -901,8 +997,14 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -921,8 +1023,14 @@
       <c r="H18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -941,8 +1049,14 @@
       <c r="H19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -961,8 +1075,14 @@
       <c r="H20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -981,8 +1101,14 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1001,8 +1127,14 @@
       <c r="H22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1021,8 +1153,14 @@
       <c r="H23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1041,8 +1179,14 @@
       <c r="H24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1061,8 +1205,14 @@
       <c r="H25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1081,8 +1231,14 @@
       <c r="H26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1101,8 +1257,14 @@
       <c r="H27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1121,8 +1283,14 @@
       <c r="H28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1141,8 +1309,14 @@
       <c r="H29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1161,8 +1335,14 @@
       <c r="H30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1181,8 +1361,14 @@
       <c r="H31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1201,8 +1387,14 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1221,8 +1413,14 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1241,8 +1439,14 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1261,8 +1465,14 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1281,8 +1491,14 @@
       <c r="H36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1301,8 +1517,14 @@
       <c r="H37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1321,8 +1543,14 @@
       <c r="H38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1341,8 +1569,14 @@
       <c r="H39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1361,8 +1595,14 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1381,8 +1621,14 @@
       <c r="H41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1401,8 +1647,14 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1426,13 +1678,13 @@
         <f t="shared" si="0"/>
         <v>2.3170731707317072</v>
       </c>
-      <c r="I44" s="2" t="e">
+      <c r="I44" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J44" s="2" t="e">
+        <v>2.6829268292682928</v>
+      </c>
+      <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.5121951219512195</v>
       </c>
       <c r="K44" s="2" t="e">
         <f t="shared" si="0"/>
